--- a/Solutions.xlsx
+++ b/Solutions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koen\Desktop\projecten\OriBunshi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B2203C1C-9F66-4E6E-A161-26C2F1F784BB}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF156177-ABF4-4075-BC0A-0B4C3497C080}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="5" xr2:uid="{A3E14E87-F412-485C-A0AF-377DA13F53CA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="1" xr2:uid="{A3E14E87-F412-485C-A0AF-377DA13F53CA}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="16">
   <si>
     <t>PPPHHPPHHPPPPPHHHHHHHPPHHPPPPHHPPHPP</t>
   </si>
@@ -71,16 +71,19 @@
     <t>randomsample</t>
   </si>
   <si>
-    <t>annealing solution:</t>
-  </si>
-  <si>
     <t>depth oplossing:</t>
   </si>
   <si>
     <t>anneal oplossing:</t>
   </si>
   <si>
-    <t>anneal oplossing</t>
+    <t>annealing solutions:</t>
+  </si>
+  <si>
+    <t>novadil</t>
+  </si>
+  <si>
+    <t>vadil</t>
   </si>
 </sst>
 </file>
@@ -375,121 +378,6 @@
         <a:xfrm>
           <a:off x="7924800" y="1841500"/>
           <a:ext cx="8286750" cy="6191250"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>608838</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>151829</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{197B521D-AC8D-40BF-8717-DF5201007F34}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3657600" y="1657350"/>
-          <a:ext cx="6095238" cy="4571429"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>374650</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="https://lh6.googleusercontent.com/F52olQWmhW_J5VIM-NjAPsK6d0kEF99FvrIlzER28nd0sfb4ITP3hGCMBMR_djLvqf4yeaP3nCupLe-2Za18lrX9LeEVOCwQizIHo00E6UAEaE8M0MVObVvUmpqZQKqgcxIwPPf_E84">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3694C3D9-DC0D-4750-B4B0-A2CC586B079F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5486400" y="1657350"/>
-          <a:ext cx="8299450" cy="6546850"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1180,8 +1068,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A61A200-892A-47F7-A7FB-AEC1DDDF9119}">
   <dimension ref="B4:C13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1247,7 +1135,7 @@
   <dimension ref="B4:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1336,8 +1224,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{90AB6C77-D156-4081-9BF4-41CA8DF0FFD8}">
   <dimension ref="B4:N20"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1347,6 +1235,11 @@
         <v>5</v>
       </c>
     </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.35">
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+    </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.35">
       <c r="C9" t="s">
         <v>9</v>
@@ -1355,10 +1248,10 @@
         <v>10</v>
       </c>
       <c r="I9" t="s">
+        <v>11</v>
+      </c>
+      <c r="N9" t="s">
         <v>12</v>
-      </c>
-      <c r="N9" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.35">
@@ -1368,7 +1261,7 @@
       <c r="D10">
         <v>18049040</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>0</v>
       </c>
       <c r="G10">
@@ -1517,28 +1410,25 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F0D1411-BCE3-4CF0-9946-C77605B8A612}">
-  <dimension ref="B4:G20"/>
+  <dimension ref="B4:C20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M8" sqref="M8"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B4" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="G8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.35">
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B10" t="s">
         <v>2</v>
       </c>
@@ -1546,7 +1436,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="11" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B11">
         <v>0</v>
       </c>
@@ -1554,7 +1444,7 @@
         <v>13548</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B12">
         <v>-1</v>
       </c>
@@ -1562,7 +1452,7 @@
         <v>25448</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="13" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B13">
         <v>-2</v>
       </c>
@@ -1570,7 +1460,7 @@
         <v>27364</v>
       </c>
     </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="14" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B14">
         <v>-3</v>
       </c>
@@ -1578,7 +1468,7 @@
         <v>18867</v>
       </c>
     </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B15">
         <v>-4</v>
       </c>
@@ -1586,7 +1476,7 @@
         <v>9591</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.35">
+    <row r="16" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B16">
         <v>-5</v>
       </c>
@@ -1628,155 +1518,189 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C570085D-20D4-477A-A2FC-5CDAFD7557E3}">
-  <dimension ref="B2:J22"/>
+  <dimension ref="B2:AB18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:28" x14ac:dyDescent="0.35">
       <c r="B2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="E7" t="s">
+    <row r="3" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="E8" t="s">
+    <row r="4" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-      <c r="F8" t="s">
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="J8" t="s">
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>5555</v>
+      </c>
+      <c r="Y5" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="E9">
-        <v>0</v>
-      </c>
-      <c r="F9">
-        <v>5555</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="E10">
+      <c r="AB5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B6">
         <v>-1</v>
       </c>
-      <c r="F10">
+      <c r="C6">
         <v>14075</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="E11">
+      <c r="Y6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B7">
         <v>-2</v>
       </c>
-      <c r="F11">
+      <c r="C7">
         <v>19526</v>
       </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="E12">
+      <c r="Y7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B8">
         <v>-3</v>
       </c>
-      <c r="F12">
+      <c r="C8">
         <v>20320</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="E13">
+      <c r="Y8">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B9">
         <v>-4</v>
       </c>
-      <c r="F13">
+      <c r="C9">
         <v>16676</v>
       </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="E14">
+      <c r="Y9">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B10">
         <v>-5</v>
       </c>
-      <c r="F14">
+      <c r="C10">
         <v>11604</v>
       </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="E15">
+      <c r="Y10">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B11">
         <v>-6</v>
       </c>
-      <c r="F15">
+      <c r="C11">
         <v>6589</v>
       </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="E16">
+      <c r="Y11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B12">
         <v>-7</v>
       </c>
-      <c r="F16">
+      <c r="C12">
         <v>3361</v>
       </c>
-    </row>
-    <row r="17" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E17">
+      <c r="Y12">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B13">
         <v>-8</v>
       </c>
-      <c r="F17">
+      <c r="C13">
         <v>1484</v>
       </c>
-    </row>
-    <row r="18" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E18">
+      <c r="Y13">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B14">
         <v>-9</v>
       </c>
-      <c r="F18">
+      <c r="C14">
         <v>533</v>
       </c>
-    </row>
-    <row r="19" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E19">
+      <c r="Y14">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B15">
         <v>-10</v>
       </c>
-      <c r="F19">
+      <c r="C15">
         <v>199</v>
       </c>
-    </row>
-    <row r="20" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E20">
+      <c r="Y15">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28" x14ac:dyDescent="0.35">
+      <c r="B16">
         <v>-11</v>
       </c>
-      <c r="F20">
+      <c r="C16">
         <v>60</v>
       </c>
-    </row>
-    <row r="21" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E21">
+      <c r="Y16">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B17">
         <v>-12</v>
       </c>
-      <c r="F21">
+      <c r="C17">
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="5:6" x14ac:dyDescent="0.35">
-      <c r="E22">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+      <c r="B18">
         <v>-13</v>
       </c>
-      <c r="F22">
+      <c r="C18">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Solutions.xlsx
+++ b/Solutions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Koen\Desktop\projecten\OriBunshi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF156177-ABF4-4075-BC0A-0B4C3497C080}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8540C5CB-1D9F-43F7-9A77-515EDBFA5A08}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="1" xr2:uid="{A3E14E87-F412-485C-A0AF-377DA13F53CA}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="8250" activeTab="5" xr2:uid="{A3E14E87-F412-485C-A0AF-377DA13F53CA}"/>
   </bookViews>
   <sheets>
     <sheet name="all" sheetId="1" r:id="rId1"/>
@@ -138,6 +138,1355 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Sample (n</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB" baseline="0"/>
+              <a:t> = 10.000) and </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-GB"/>
+              <a:t>Annealing solutions (n = 24)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>randomsample</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'molecule 4'!$B$5:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'molecule 4'!$C$5:$C$18</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>5555</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14075</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>19526</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>20320</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16676</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>11604</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6589</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3361</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1484</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>533</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3C8A-45C8-839C-EC798AB82A0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:dLblPos val="outEnd"/>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="71"/>
+        <c:axId val="443758200"/>
+        <c:axId val="443759160"/>
+      </c:barChart>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Annealing</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>'molecule 4'!$B$5:$B$25</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>-4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>-6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>-8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>-9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>-11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>-12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>-13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-20</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'molecule 4'!$M$26:$M$46</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="21"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3C8A-45C8-839C-EC798AB82A0E}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="71"/>
+        <c:axId val="450223664"/>
+        <c:axId val="443767160"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="443758200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443759160"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="443759160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>randomsample amount</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="443758200"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="443767160"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-GB"/>
+                  <a:t>annealing amount</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-NL"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-NL"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="450223664"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="450223664"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="443767160"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-NL"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-NL"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -394,6 +1743,47 @@
         </a:extLst>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>415637</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>13028</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>357911</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>117102</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C17F2AAA-D4C8-4845-B3D2-B7AF1091836B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1068,7 +2458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A61A200-892A-47F7-A7FB-AEC1DDDF9119}">
   <dimension ref="B4:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
@@ -1523,10 +2913,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C570085D-20D4-477A-A2FC-5CDAFD7557E3}">
-  <dimension ref="B2:AB18"/>
+  <dimension ref="B2:AB47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M45" sqref="M45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1684,7 +3074,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B17">
         <v>-12</v>
       </c>
@@ -1692,7 +3082,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.35">
       <c r="B18">
         <v>-13</v>
       </c>
@@ -1700,7 +3090,280 @@
         <v>2</v>
       </c>
     </row>
+    <row r="19" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>-14</v>
+      </c>
+    </row>
+    <row r="20" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B20">
+        <v>-15</v>
+      </c>
+    </row>
+    <row r="21" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B21">
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="22" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B22">
+        <v>-17</v>
+      </c>
+    </row>
+    <row r="23" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B23">
+        <v>-18</v>
+      </c>
+    </row>
+    <row r="24" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B24">
+        <v>-19</v>
+      </c>
+    </row>
+    <row r="25" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B25">
+        <v>-20</v>
+      </c>
+    </row>
+    <row r="26" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B26">
+        <v>-21</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B27">
+        <v>-22</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B28">
+        <v>-23</v>
+      </c>
+      <c r="L28">
+        <v>3</v>
+      </c>
+      <c r="M28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B29">
+        <v>-24</v>
+      </c>
+      <c r="L29">
+        <v>4</v>
+      </c>
+      <c r="M29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="B30">
+        <v>-25</v>
+      </c>
+      <c r="L30">
+        <v>5</v>
+      </c>
+      <c r="M30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L31">
+        <v>6</v>
+      </c>
+      <c r="M31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.35">
+      <c r="L32">
+        <v>7</v>
+      </c>
+      <c r="M32">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="12:25" x14ac:dyDescent="0.35">
+      <c r="L33">
+        <v>8</v>
+      </c>
+      <c r="M33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="12:25" x14ac:dyDescent="0.35">
+      <c r="L34">
+        <v>9</v>
+      </c>
+      <c r="M34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="12:25" x14ac:dyDescent="0.35">
+      <c r="L35">
+        <v>10</v>
+      </c>
+      <c r="M35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="12:25" x14ac:dyDescent="0.35">
+      <c r="L36">
+        <v>11</v>
+      </c>
+      <c r="M36">
+        <v>0</v>
+      </c>
+      <c r="X36">
+        <v>22</v>
+      </c>
+      <c r="Y36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="12:25" x14ac:dyDescent="0.35">
+      <c r="L37">
+        <v>12</v>
+      </c>
+      <c r="M37">
+        <v>1</v>
+      </c>
+      <c r="X37">
+        <v>23</v>
+      </c>
+      <c r="Y37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="12:25" x14ac:dyDescent="0.35">
+      <c r="L38">
+        <v>13</v>
+      </c>
+      <c r="M38">
+        <v>1</v>
+      </c>
+      <c r="X38">
+        <v>24</v>
+      </c>
+      <c r="Y38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="12:25" x14ac:dyDescent="0.35">
+      <c r="L39">
+        <v>14</v>
+      </c>
+      <c r="M39">
+        <v>3</v>
+      </c>
+      <c r="X39">
+        <v>25</v>
+      </c>
+      <c r="Y39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="12:25" x14ac:dyDescent="0.35">
+      <c r="L40">
+        <v>15</v>
+      </c>
+      <c r="M40">
+        <v>0</v>
+      </c>
+      <c r="X40">
+        <v>26</v>
+      </c>
+      <c r="Y40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="12:25" x14ac:dyDescent="0.35">
+      <c r="L41">
+        <v>16</v>
+      </c>
+      <c r="M41">
+        <v>4</v>
+      </c>
+      <c r="X41">
+        <v>27</v>
+      </c>
+      <c r="Y41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="12:25" x14ac:dyDescent="0.35">
+      <c r="L42">
+        <v>17</v>
+      </c>
+      <c r="M42">
+        <v>6</v>
+      </c>
+      <c r="X42">
+        <v>28</v>
+      </c>
+      <c r="Y42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="12:25" x14ac:dyDescent="0.35">
+      <c r="L43">
+        <v>18</v>
+      </c>
+      <c r="M43">
+        <v>6</v>
+      </c>
+      <c r="X43">
+        <v>29</v>
+      </c>
+      <c r="Y43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="12:25" x14ac:dyDescent="0.35">
+      <c r="L44">
+        <v>19</v>
+      </c>
+      <c r="M44">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="12:25" x14ac:dyDescent="0.35">
+      <c r="L45">
+        <v>20</v>
+      </c>
+      <c r="M45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="12:25" x14ac:dyDescent="0.35">
+      <c r="L46">
+        <v>21</v>
+      </c>
+      <c r="M46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="12:25" x14ac:dyDescent="0.35">
+      <c r="M47">
+        <f>SUM(M37:M45)</f>
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>